--- a/data/trans_orig/ProblemasDormirP33b-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/ProblemasDormirP33b-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>3691</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1331</v>
+        <v>1360</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8346</v>
+        <v>7842</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01157725537844939</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004173075726503225</v>
+        <v>0.004263890792812544</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02617630396843362</v>
+        <v>0.02459381164442686</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -762,19 +762,19 @@
         <v>7420</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4309</v>
+        <v>4004</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13129</v>
+        <v>12502</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02347764903693613</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0136337258043327</v>
+        <v>0.01266805692673372</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04154013394559938</v>
+        <v>0.03955432369513632</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -783,19 +783,19 @@
         <v>11112</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6725</v>
+        <v>6504</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18188</v>
+        <v>17745</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01750135519980608</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01059281938922071</v>
+        <v>0.0102433753288736</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02864685714674988</v>
+        <v>0.02794948567487128</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>315154</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>310499</v>
+        <v>311003</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>317514</v>
+        <v>317485</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9884227446215506</v>
+        <v>0.9884227446215508</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9738236960315663</v>
+        <v>0.9754061883555729</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9958269242734966</v>
+        <v>0.9957361092071875</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>525</v>
@@ -833,19 +833,19 @@
         <v>308641</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>302932</v>
+        <v>303559</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>311752</v>
+        <v>312057</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9765223509630638</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9584598660544006</v>
+        <v>0.960445676304863</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9863662741956668</v>
+        <v>0.9873319430732658</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>851</v>
@@ -854,19 +854,19 @@
         <v>623794</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>616718</v>
+        <v>617161</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>628181</v>
+        <v>628402</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9824986448001941</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.97135314285325</v>
+        <v>0.9720505143251289</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9894071806107794</v>
+        <v>0.9897566246711264</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>34865</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23707</v>
+        <v>22854</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52592</v>
+        <v>49747</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06570258698705601</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04467614245297576</v>
+        <v>0.04306737264562086</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09910901666645305</v>
+        <v>0.09374716633484297</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>106</v>
@@ -979,19 +979,19 @@
         <v>73659</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>60706</v>
+        <v>61404</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>88637</v>
+        <v>89485</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1347847743121537</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.111081864981645</v>
+        <v>0.1123591838717934</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1621926401704637</v>
+        <v>0.1637442068164144</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>132</v>
@@ -1000,19 +1000,19 @@
         <v>108524</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>90536</v>
+        <v>90599</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>129893</v>
+        <v>128541</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1007518632167153</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08405209349469718</v>
+        <v>0.0841109072821082</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1205904910887308</v>
+        <v>0.1193350181655858</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>495782</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>478055</v>
+        <v>480900</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>506940</v>
+        <v>507793</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9342974130129439</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9008909833335471</v>
+        <v>0.9062528336651569</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9553238575470243</v>
+        <v>0.956932627354379</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>611</v>
@@ -1050,19 +1050,19 @@
         <v>472835</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>457857</v>
+        <v>457009</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>485788</v>
+        <v>485090</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8652152256878463</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8378073598295365</v>
+        <v>0.8362557931835856</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.888918135018355</v>
+        <v>0.8876408161282063</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>967</v>
@@ -1071,19 +1071,19 @@
         <v>968617</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>947248</v>
+        <v>948600</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>986605</v>
+        <v>986542</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8992481367832847</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8794095089112692</v>
+        <v>0.880664981834414</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9159479065053029</v>
+        <v>0.9158890927178918</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>50964</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>37454</v>
+        <v>39324</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64650</v>
+        <v>64374</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1612807175903802</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1185267803523367</v>
+        <v>0.1244445894826103</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2045946425791297</v>
+        <v>0.2037194336956918</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>128</v>
@@ -1196,19 +1196,19 @@
         <v>80938</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>69027</v>
+        <v>69580</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>94797</v>
+        <v>94569</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2271108889684368</v>
+        <v>0.2271108889684367</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1936883845418342</v>
+        <v>0.1952408609832142</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2659990874504953</v>
+        <v>0.2653604562382607</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>189</v>
@@ -1217,19 +1217,19 @@
         <v>131902</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>115033</v>
+        <v>115999</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>151080</v>
+        <v>151885</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1961729321718048</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1710842120838724</v>
+        <v>0.1725208389732848</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2246966827314147</v>
+        <v>0.2258937950271978</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>265029</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>251343</v>
+        <v>251619</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>278539</v>
+        <v>276669</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8387192824096199</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7954053574208704</v>
+        <v>0.7962805663043085</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8814732196476635</v>
+        <v>0.8755554105173897</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>408</v>
@@ -1267,19 +1267,19 @@
         <v>275443</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>261584</v>
+        <v>261812</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>287354</v>
+        <v>286801</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7728891110315633</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7340009125495046</v>
+        <v>0.7346395437617395</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8063116154581657</v>
+        <v>0.804759139016786</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>707</v>
@@ -1288,19 +1288,19 @@
         <v>540473</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>521295</v>
+        <v>520490</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>557342</v>
+        <v>556376</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8038270678281952</v>
+        <v>0.8038270678281951</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7753033172685851</v>
+        <v>0.7741062049728021</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8289157879161274</v>
+        <v>0.8274791610267151</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>58307</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>43181</v>
+        <v>42730</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>78447</v>
+        <v>79187</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1562579127520336</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1157225149456045</v>
+        <v>0.1145143609306263</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2102330944774523</v>
+        <v>0.2122138013912236</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>153</v>
@@ -1413,19 +1413,19 @@
         <v>98915</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>83721</v>
+        <v>85101</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>114860</v>
+        <v>117636</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2344167302141484</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1984088083236998</v>
+        <v>0.2016808457877755</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2722055967504839</v>
+        <v>0.2787852237245737</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>203</v>
@@ -1434,19 +1434,19 @@
         <v>157222</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>132831</v>
+        <v>133767</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>183532</v>
+        <v>184803</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1977366317356543</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.167060316568671</v>
+        <v>0.1682373120482039</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.230827104136168</v>
+        <v>0.232425782552623</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>314838</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>294698</v>
+        <v>293958</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>329964</v>
+        <v>330415</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8437420872479665</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7897669055225471</v>
+        <v>0.7877861986087762</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8842774850543956</v>
+        <v>0.8854856390693735</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>446</v>
@@ -1484,19 +1484,19 @@
         <v>323046</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>307101</v>
+        <v>304325</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>338240</v>
+        <v>336860</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7655832697858517</v>
+        <v>0.7655832697858518</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7277944032495161</v>
+        <v>0.7212147762754261</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8015911916763004</v>
+        <v>0.7983191542122245</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>688</v>
@@ -1505,19 +1505,19 @@
         <v>637885</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>611575</v>
+        <v>610304</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>662276</v>
+        <v>661340</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8022633682643459</v>
+        <v>0.8022633682643455</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.769172895863832</v>
+        <v>0.7675742174473773</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.832939683431329</v>
+        <v>0.8317626879517962</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>7850</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4479</v>
+        <v>4353</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12820</v>
+        <v>13494</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03816688362162862</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02177944818002817</v>
+        <v>0.02116747870720609</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06233524229765487</v>
+        <v>0.06561054289023632</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>39</v>
@@ -1630,19 +1630,19 @@
         <v>16253</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11621</v>
+        <v>11708</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21560</v>
+        <v>21816</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07099894870829576</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05076341735801397</v>
+        <v>0.05114444704977768</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09418034787676373</v>
+        <v>0.09529907263529405</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>52</v>
@@ -1651,19 +1651,19 @@
         <v>24102</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18597</v>
+        <v>18120</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31935</v>
+        <v>30883</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05546127655557107</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04279291364324911</v>
+        <v>0.04169517529358274</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07348550727925532</v>
+        <v>0.07106465864520629</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>197815</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>192845</v>
+        <v>192171</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>201186</v>
+        <v>201312</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9618331163783713</v>
+        <v>0.9618331163783714</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9376647577023451</v>
+        <v>0.9343894571097633</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9782205518199717</v>
+        <v>0.9788325212927935</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>456</v>
@@ -1701,19 +1701,19 @@
         <v>212665</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>207358</v>
+        <v>207102</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>217297</v>
+        <v>217210</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9290010512917043</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9058196521232363</v>
+        <v>0.904700927364706</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9492365826419862</v>
+        <v>0.9488555529502222</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>722</v>
@@ -1722,19 +1722,19 @@
         <v>410480</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>402647</v>
+        <v>403699</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>415985</v>
+        <v>416462</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.944538723444429</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9265144927207448</v>
+        <v>0.9289353413547937</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9572070863567511</v>
+        <v>0.9583048247064174</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>34038</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25997</v>
+        <v>25244</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>45091</v>
+        <v>44450</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1257388659489664</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09603442966563337</v>
+        <v>0.09325179646904869</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1665661080221799</v>
+        <v>0.1641997748620432</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>124</v>
@@ -1847,19 +1847,19 @@
         <v>60824</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>51563</v>
+        <v>51112</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>72411</v>
+        <v>72338</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2306105405308441</v>
+        <v>0.230610540530844</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.195500240839501</v>
+        <v>0.1937890913144553</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.274542393467451</v>
+        <v>0.2742674190417159</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>178</v>
@@ -1868,19 +1868,19 @@
         <v>94862</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>81472</v>
+        <v>81871</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>108622</v>
+        <v>108650</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1774921795921249</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1524386666523688</v>
+        <v>0.1531859275312985</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2032385920007496</v>
+        <v>0.2032909481278955</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>236669</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>225616</v>
+        <v>226257</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>244710</v>
+        <v>245463</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8742611340510336</v>
+        <v>0.8742611340510337</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.83343389197782</v>
+        <v>0.8358002251379569</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9039655703343666</v>
+        <v>0.9067482035309514</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>336</v>
@@ -1918,19 +1918,19 @@
         <v>202926</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>191339</v>
+        <v>191412</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>212187</v>
+        <v>212638</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.769389459469156</v>
+        <v>0.7693894594691558</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7254576065325493</v>
+        <v>0.7257325809582844</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.804499759160499</v>
+        <v>0.8062109086855447</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>653</v>
@@ -1939,19 +1939,19 @@
         <v>439595</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>425835</v>
+        <v>425807</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>452985</v>
+        <v>452586</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8225078204078751</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7967614079992501</v>
+        <v>0.7967090518721043</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8475613333476312</v>
+        <v>0.8468140724687014</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>116438</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>94608</v>
+        <v>94153</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>139521</v>
+        <v>139224</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1617902327758971</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1314570042510381</v>
+        <v>0.1308251653532406</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1938630937339423</v>
+        <v>0.1934503225239834</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>252</v>
@@ -2064,19 +2064,19 @@
         <v>198079</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>177636</v>
+        <v>176931</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>221737</v>
+        <v>219554</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2565601371626098</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2300820811379726</v>
+        <v>0.2291682801009151</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2872023127542427</v>
+        <v>0.2843750650725606</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>354</v>
@@ -2085,19 +2085,19 @@
         <v>314517</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>283712</v>
+        <v>282379</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>351019</v>
+        <v>345230</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.210838699069881</v>
+        <v>0.2108386990698811</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1901882000058586</v>
+        <v>0.1892946661918555</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2353080003706777</v>
+        <v>0.2314271986621891</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>603249</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>580166</v>
+        <v>580463</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>625079</v>
+        <v>625534</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8382097672241028</v>
+        <v>0.838209767224103</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8061369062660576</v>
+        <v>0.8065496774760166</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8685429957489617</v>
+        <v>0.8691748346467597</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>708</v>
@@ -2135,19 +2135,19 @@
         <v>573978</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>550320</v>
+        <v>552503</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>594421</v>
+        <v>595126</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7434398628373901</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7127976872457573</v>
+        <v>0.7156249349274395</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7699179188620272</v>
+        <v>0.7708317198990849</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1205</v>
@@ -2156,19 +2156,19 @@
         <v>1177227</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1140725</v>
+        <v>1146514</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1208032</v>
+        <v>1209365</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7891613009301189</v>
+        <v>0.789161300930119</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7646919996293222</v>
+        <v>0.768572801337811</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8098117999941414</v>
+        <v>0.8107053338081441</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>151714</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>130770</v>
+        <v>132639</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>174733</v>
+        <v>173710</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1901008352035209</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1638569892106439</v>
+        <v>0.166199135720053</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2189444099308964</v>
+        <v>0.2176621410179998</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>362</v>
@@ -2281,19 +2281,19 @@
         <v>242028</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>220602</v>
+        <v>221121</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>265477</v>
+        <v>266421</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2911337292812891</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2653605704876156</v>
+        <v>0.2659848948502277</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3193397953791297</v>
+        <v>0.320475803386797</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>546</v>
@@ -2302,19 +2302,19 @@
         <v>393743</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>366055</v>
+        <v>362928</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>423757</v>
+        <v>424879</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2416484293062948</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2246556980366745</v>
+        <v>0.2227366942249499</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2600687227784328</v>
+        <v>0.2607574183257994</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>646358</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>623339</v>
+        <v>624362</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>667302</v>
+        <v>665433</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8098991647964792</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7810555900691036</v>
+        <v>0.7823378589820003</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.836143010789356</v>
+        <v>0.833800864279947</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>700</v>
@@ -2352,19 +2352,19 @@
         <v>589303</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>565854</v>
+        <v>564910</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>610729</v>
+        <v>610210</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7088662707187109</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6806602046208703</v>
+        <v>0.6795241966132031</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7346394295123843</v>
+        <v>0.7340151051497722</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1278</v>
@@ -2373,19 +2373,19 @@
         <v>1235660</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1205646</v>
+        <v>1204524</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1263348</v>
+        <v>1266475</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7583515706937051</v>
+        <v>0.7583515706937053</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7399312772215672</v>
+        <v>0.7392425816742006</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7753443019633254</v>
+        <v>0.77726330577505</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>457867</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>418444</v>
+        <v>418896</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>504002</v>
+        <v>502177</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1296060271455767</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1184468295219726</v>
+        <v>0.1185745432928703</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1426650523473871</v>
+        <v>0.1421486475217037</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1177</v>
@@ -2498,19 +2498,19 @@
         <v>778116</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>736127</v>
+        <v>737737</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>822233</v>
+        <v>821738</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.208222124193384</v>
+        <v>0.2082221241933839</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1969858243523966</v>
+        <v>0.1974166045319189</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2200274891240126</v>
+        <v>0.2198950086213996</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1672</v>
@@ -2519,19 +2519,19 @@
         <v>1235984</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1176748</v>
+        <v>1169080</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1295028</v>
+        <v>1298645</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.170018162692412</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1618698622266378</v>
+        <v>0.160815124806613</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1781401317345386</v>
+        <v>0.1786375909643597</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>3074895</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3028760</v>
+        <v>3030585</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3114318</v>
+        <v>3113866</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8703939728544235</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8573349476526134</v>
+        <v>0.8578513524782964</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8815531704780274</v>
+        <v>0.8814254567071298</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4190</v>
@@ -2569,19 +2569,19 @@
         <v>2958838</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2914721</v>
+        <v>2915216</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3000827</v>
+        <v>2999217</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.7917778758066162</v>
+        <v>0.7917778758066161</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7799725108759875</v>
+        <v>0.7801049913786006</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8030141756476036</v>
+        <v>0.8025833954680817</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7071</v>
@@ -2590,19 +2590,19 @@
         <v>6033732</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5974688</v>
+        <v>5971071</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6092968</v>
+        <v>6100636</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8299818373075879</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8218598682654613</v>
+        <v>0.8213624090356404</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8381301377733622</v>
+        <v>0.8391848751933871</v>
       </c>
     </row>
     <row r="30">
